--- a/htdocs/App/Controllers/Traspasos/5261BKX.xlsx
+++ b/htdocs/App/Controllers/Traspasos/5261BKX.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>TRANSFERENCIAS COMPRAVENTAS</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>15-12-2017</t>
+    <t>17-01-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-12-15</t>
+    <t>2018-01-17</t>
   </si>
   <si>
     <t>x</t>
@@ -94,7 +94,10 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t xml:space="preserve">rollandi </t>
+    <t>Alberto Martinez</t>
+  </si>
+  <si>
+    <t>no disponible</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>687717304</v>
+        <v>1948</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -1660,7 +1663,7 @@
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="55" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -1844,7 +1847,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
